--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slpi-Plscr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slpi-Plscr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Slpi</t>
+  </si>
+  <si>
+    <t>Plscr4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Slpi</t>
-  </si>
-  <si>
-    <t>Plscr4</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>21.51428233333333</v>
+        <v>1.539300666666667</v>
       </c>
       <c r="H2">
-        <v>64.54284699999999</v>
+        <v>4.617902000000001</v>
       </c>
       <c r="I2">
-        <v>0.7719797236879435</v>
+        <v>0.7922692235305179</v>
       </c>
       <c r="J2">
-        <v>0.7719797236879435</v>
+        <v>0.7922692235305179</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>11.03432966666667</v>
+        <v>16.125723</v>
       </c>
       <c r="N2">
-        <v>33.102989</v>
+        <v>48.377169</v>
       </c>
       <c r="O2">
-        <v>0.2974579312053251</v>
+        <v>0.3714223867621921</v>
       </c>
       <c r="P2">
-        <v>0.2974579312053252</v>
+        <v>0.3714223867621922</v>
       </c>
       <c r="Q2">
-        <v>237.3956838077425</v>
+        <v>24.822336164382</v>
       </c>
       <c r="R2">
-        <v>2136.561154269683</v>
+        <v>223.4010254794381</v>
       </c>
       <c r="S2">
-        <v>0.2296314915406742</v>
+        <v>0.2942665259619336</v>
       </c>
       <c r="T2">
-        <v>0.2296314915406742</v>
+        <v>0.2942665259619337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>21.51428233333333</v>
+        <v>1.539300666666667</v>
       </c>
       <c r="H3">
-        <v>64.54284699999999</v>
+        <v>4.617902000000001</v>
       </c>
       <c r="I3">
-        <v>0.7719797236879435</v>
+        <v>0.7922692235305179</v>
       </c>
       <c r="J3">
-        <v>0.7719797236879435</v>
+        <v>0.7922692235305179</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>60.54635</v>
       </c>
       <c r="O3">
-        <v>0.5440593903177002</v>
+        <v>0.4648529521588801</v>
       </c>
       <c r="P3">
-        <v>0.5440593903177002</v>
+        <v>0.4648529521588801</v>
       </c>
       <c r="Q3">
-        <v>434.2037560509389</v>
+        <v>31.06634563974445</v>
       </c>
       <c r="R3">
-        <v>3907.83380445845</v>
+        <v>279.5971107577001</v>
       </c>
       <c r="S3">
-        <v>0.4200028178072893</v>
+        <v>0.3682886874627849</v>
       </c>
       <c r="T3">
-        <v>0.4200028178072893</v>
+        <v>0.3682886874627849</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>21.51428233333333</v>
+        <v>1.539300666666667</v>
       </c>
       <c r="H4">
-        <v>64.54284699999999</v>
+        <v>4.617902000000001</v>
       </c>
       <c r="I4">
-        <v>0.7719797236879435</v>
+        <v>0.7922692235305179</v>
       </c>
       <c r="J4">
-        <v>0.7719797236879435</v>
+        <v>0.7922692235305179</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.081043333333334</v>
+        <v>5.883019</v>
       </c>
       <c r="N4">
-        <v>15.24313</v>
+        <v>17.649057</v>
       </c>
       <c r="O4">
-        <v>0.1369722206926338</v>
+        <v>0.1355030691242387</v>
       </c>
       <c r="P4">
-        <v>0.1369722206926338</v>
+        <v>0.1355030691242387</v>
       </c>
       <c r="Q4">
-        <v>109.3150008212344</v>
+        <v>9.055735068712668</v>
       </c>
       <c r="R4">
-        <v>983.8350073911099</v>
+        <v>81.50161561841401</v>
       </c>
       <c r="S4">
-        <v>0.1057397770832234</v>
+        <v>0.1073549113610626</v>
       </c>
       <c r="T4">
-        <v>0.1057397770832234</v>
+        <v>0.1073549113610626</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>21.51428233333333</v>
+        <v>1.539300666666667</v>
       </c>
       <c r="H5">
-        <v>64.54284699999999</v>
+        <v>4.617902000000001</v>
       </c>
       <c r="I5">
-        <v>0.7719797236879435</v>
+        <v>0.7922692235305179</v>
       </c>
       <c r="J5">
-        <v>0.7719797236879435</v>
+        <v>0.7922692235305179</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7979396666666666</v>
+        <v>1.225272333333334</v>
       </c>
       <c r="N5">
-        <v>2.393819</v>
+        <v>3.675817</v>
       </c>
       <c r="O5">
-        <v>0.02151045778434087</v>
+        <v>0.02822159195468923</v>
       </c>
       <c r="P5">
-        <v>0.02151045778434087</v>
+        <v>0.02822159195468923</v>
       </c>
       <c r="Q5">
-        <v>17.16709927363255</v>
+        <v>1.886062519548223</v>
       </c>
       <c r="R5">
-        <v>154.503893462693</v>
+        <v>16.97456267593401</v>
       </c>
       <c r="S5">
-        <v>0.01660563725675664</v>
+        <v>0.02235909874473675</v>
       </c>
       <c r="T5">
-        <v>0.01660563725675664</v>
+        <v>0.02235909874473675</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.539300666666667</v>
+        <v>0.3011166666666666</v>
       </c>
       <c r="H6">
-        <v>4.617902</v>
+        <v>0.90335</v>
       </c>
       <c r="I6">
-        <v>0.05523349024219527</v>
+        <v>0.1549830210940581</v>
       </c>
       <c r="J6">
-        <v>0.05523349024219527</v>
+        <v>0.1549830210940581</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>11.03432966666667</v>
+        <v>16.125723</v>
       </c>
       <c r="N6">
-        <v>33.102989</v>
+        <v>48.377169</v>
       </c>
       <c r="O6">
-        <v>0.2974579312053251</v>
+        <v>0.3714223867621921</v>
       </c>
       <c r="P6">
-        <v>0.2974579312053252</v>
+        <v>0.3714223867621922</v>
       </c>
       <c r="Q6">
-        <v>16.98515101211978</v>
+        <v>4.85572395735</v>
       </c>
       <c r="R6">
-        <v>152.866359109078</v>
+        <v>43.70151561615</v>
       </c>
       <c r="S6">
-        <v>0.01642963974069292</v>
+        <v>0.05756416360237024</v>
       </c>
       <c r="T6">
-        <v>0.01642963974069292</v>
+        <v>0.05756416360237025</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.539300666666667</v>
+        <v>0.3011166666666666</v>
       </c>
       <c r="H7">
-        <v>4.617902</v>
+        <v>0.90335</v>
       </c>
       <c r="I7">
-        <v>0.05523349024219527</v>
+        <v>0.1549830210940581</v>
       </c>
       <c r="J7">
-        <v>0.05523349024219527</v>
+        <v>0.1549830210940581</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>60.54635</v>
       </c>
       <c r="O7">
-        <v>0.5440593903177002</v>
+        <v>0.4648529521588801</v>
       </c>
       <c r="P7">
-        <v>0.5440593903177002</v>
+        <v>0.4648529521588801</v>
       </c>
       <c r="Q7">
-        <v>31.06634563974445</v>
+        <v>6.077171696944445</v>
       </c>
       <c r="R7">
-        <v>279.5971107577</v>
+        <v>54.6945452725</v>
       </c>
       <c r="S7">
-        <v>0.03005029902628741</v>
+        <v>0.0720443148900749</v>
       </c>
       <c r="T7">
-        <v>0.03005029902628741</v>
+        <v>0.0720443148900749</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.539300666666667</v>
+        <v>0.3011166666666666</v>
       </c>
       <c r="H8">
-        <v>4.617902</v>
+        <v>0.90335</v>
       </c>
       <c r="I8">
-        <v>0.05523349024219527</v>
+        <v>0.1549830210940581</v>
       </c>
       <c r="J8">
-        <v>0.05523349024219527</v>
+        <v>0.1549830210940581</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.081043333333334</v>
+        <v>5.883019</v>
       </c>
       <c r="N8">
-        <v>15.24313</v>
+        <v>17.649057</v>
       </c>
       <c r="O8">
-        <v>0.1369722206926338</v>
+        <v>0.1355030691242387</v>
       </c>
       <c r="P8">
-        <v>0.1369722206926338</v>
+        <v>0.1355030691242387</v>
       </c>
       <c r="Q8">
-        <v>7.821253390362222</v>
+        <v>1.771475071216666</v>
       </c>
       <c r="R8">
-        <v>70.39128051326</v>
+        <v>15.94327564095</v>
       </c>
       <c r="S8">
-        <v>0.007565453815078405</v>
+        <v>0.02100067502039149</v>
       </c>
       <c r="T8">
-        <v>0.007565453815078405</v>
+        <v>0.02100067502039149</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.539300666666667</v>
+        <v>0.3011166666666666</v>
       </c>
       <c r="H9">
-        <v>4.617902</v>
+        <v>0.90335</v>
       </c>
       <c r="I9">
-        <v>0.05523349024219527</v>
+        <v>0.1549830210940581</v>
       </c>
       <c r="J9">
-        <v>0.05523349024219527</v>
+        <v>0.1549830210940581</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7979396666666666</v>
+        <v>1.225272333333334</v>
       </c>
       <c r="N9">
-        <v>2.393819</v>
+        <v>3.675817</v>
       </c>
       <c r="O9">
-        <v>0.02151045778434087</v>
+        <v>0.02822159195468923</v>
       </c>
       <c r="P9">
-        <v>0.02151045778434087</v>
+        <v>0.02822159195468923</v>
       </c>
       <c r="Q9">
-        <v>1.228269060859778</v>
+        <v>0.3689499207722223</v>
       </c>
       <c r="R9">
-        <v>11.054421547738</v>
+        <v>3.32054928695</v>
       </c>
       <c r="S9">
-        <v>0.001188097660136545</v>
+        <v>0.004373867581221502</v>
       </c>
       <c r="T9">
-        <v>0.001188097660136545</v>
+        <v>0.004373867581221502</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.3306173333333333</v>
+        <v>0.1024836666666667</v>
       </c>
       <c r="H10">
-        <v>0.991852</v>
+        <v>0.307451</v>
       </c>
       <c r="I10">
-        <v>0.01186327638908358</v>
+        <v>0.05274775537542399</v>
       </c>
       <c r="J10">
-        <v>0.01186327638908358</v>
+        <v>0.05274775537542399</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>11.03432966666667</v>
+        <v>16.125723</v>
       </c>
       <c r="N10">
-        <v>33.102989</v>
+        <v>48.377169</v>
       </c>
       <c r="O10">
-        <v>0.2974579312053251</v>
+        <v>0.3714223867621921</v>
       </c>
       <c r="P10">
-        <v>0.2974579312053252</v>
+        <v>0.3714223867621922</v>
       </c>
       <c r="Q10">
-        <v>3.648140649514222</v>
+        <v>1.652623220691</v>
       </c>
       <c r="R10">
-        <v>32.833265845628</v>
+        <v>14.873608986219</v>
       </c>
       <c r="S10">
-        <v>0.003528825652013782</v>
+        <v>0.01959169719788823</v>
       </c>
       <c r="T10">
-        <v>0.003528825652013783</v>
+        <v>0.01959169719788823</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.3306173333333333</v>
+        <v>0.1024836666666667</v>
       </c>
       <c r="H11">
-        <v>0.991852</v>
+        <v>0.307451</v>
       </c>
       <c r="I11">
-        <v>0.01186327638908358</v>
+        <v>0.05274775537542399</v>
       </c>
       <c r="J11">
-        <v>0.01186327638908358</v>
+        <v>0.05274775537542399</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>60.54635</v>
       </c>
       <c r="O11">
-        <v>0.5440593903177002</v>
+        <v>0.4648529521588801</v>
       </c>
       <c r="P11">
-        <v>0.5440593903177002</v>
+        <v>0.4648529521588801</v>
       </c>
       <c r="Q11">
-        <v>6.672557593355556</v>
+        <v>2.068337317094445</v>
       </c>
       <c r="R11">
-        <v>60.0530183402</v>
+        <v>18.61503585385</v>
       </c>
       <c r="S11">
-        <v>0.006454326919415183</v>
+        <v>0.02451994980602028</v>
       </c>
       <c r="T11">
-        <v>0.006454326919415183</v>
+        <v>0.02451994980602028</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.3306173333333333</v>
+        <v>0.1024836666666667</v>
       </c>
       <c r="H12">
-        <v>0.991852</v>
+        <v>0.307451</v>
       </c>
       <c r="I12">
-        <v>0.01186327638908358</v>
+        <v>0.05274775537542399</v>
       </c>
       <c r="J12">
-        <v>0.01186327638908358</v>
+        <v>0.05274775537542399</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.081043333333334</v>
+        <v>5.883019</v>
       </c>
       <c r="N12">
-        <v>15.24313</v>
+        <v>17.649057</v>
       </c>
       <c r="O12">
-        <v>0.1369722206926338</v>
+        <v>0.1355030691242387</v>
       </c>
       <c r="P12">
-        <v>0.1369722206926338</v>
+        <v>0.1355030691242387</v>
       </c>
       <c r="Q12">
-        <v>1.679880997417778</v>
+        <v>0.6029133581896666</v>
       </c>
       <c r="R12">
-        <v>15.11892897676</v>
+        <v>5.426220223706999</v>
       </c>
       <c r="S12">
-        <v>0.001624939311703268</v>
+        <v>0.007147482742784508</v>
       </c>
       <c r="T12">
-        <v>0.001624939311703268</v>
+        <v>0.007147482742784508</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.3306173333333333</v>
+        <v>0.1024836666666667</v>
       </c>
       <c r="H13">
-        <v>0.991852</v>
+        <v>0.307451</v>
       </c>
       <c r="I13">
-        <v>0.01186327638908358</v>
+        <v>0.05274775537542399</v>
       </c>
       <c r="J13">
-        <v>0.01186327638908358</v>
+        <v>0.05274775537542399</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7979396666666666</v>
+        <v>1.225272333333334</v>
       </c>
       <c r="N13">
-        <v>2.393819</v>
+        <v>3.675817</v>
       </c>
       <c r="O13">
-        <v>0.02151045778434087</v>
+        <v>0.02822159195468923</v>
       </c>
       <c r="P13">
-        <v>0.02151045778434087</v>
+        <v>0.02822159195468923</v>
       </c>
       <c r="Q13">
-        <v>0.2638126847542222</v>
+        <v>0.1255704013852222</v>
       </c>
       <c r="R13">
-        <v>2.374314162788</v>
+        <v>1.130133612467</v>
       </c>
       <c r="S13">
-        <v>0.0002551845059513502</v>
+        <v>0.001488625628730981</v>
       </c>
       <c r="T13">
-        <v>0.0002551845059513502</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>4.484773000000001</v>
-      </c>
-      <c r="H14">
-        <v>13.454319</v>
-      </c>
-      <c r="I14">
-        <v>0.1609235096807777</v>
-      </c>
-      <c r="J14">
-        <v>0.1609235096807777</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>11.03432966666667</v>
-      </c>
-      <c r="N14">
-        <v>33.102989</v>
-      </c>
-      <c r="O14">
-        <v>0.2974579312053251</v>
-      </c>
-      <c r="P14">
-        <v>0.2974579312053252</v>
-      </c>
-      <c r="Q14">
-        <v>49.48646376216567</v>
-      </c>
-      <c r="R14">
-        <v>445.3781738594911</v>
-      </c>
-      <c r="S14">
-        <v>0.04786797427194423</v>
-      </c>
-      <c r="T14">
-        <v>0.04786797427194425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>4.484773000000001</v>
-      </c>
-      <c r="H15">
-        <v>13.454319</v>
-      </c>
-      <c r="I15">
-        <v>0.1609235096807777</v>
-      </c>
-      <c r="J15">
-        <v>0.1609235096807777</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>20.18211666666667</v>
-      </c>
-      <c r="N15">
-        <v>60.54635</v>
-      </c>
-      <c r="O15">
-        <v>0.5440593903177002</v>
-      </c>
-      <c r="P15">
-        <v>0.5440593903177002</v>
-      </c>
-      <c r="Q15">
-        <v>90.51221190951669</v>
-      </c>
-      <c r="R15">
-        <v>814.6099071856502</v>
-      </c>
-      <c r="S15">
-        <v>0.08755194656470844</v>
-      </c>
-      <c r="T15">
-        <v>0.08755194656470844</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>4.484773000000001</v>
-      </c>
-      <c r="H16">
-        <v>13.454319</v>
-      </c>
-      <c r="I16">
-        <v>0.1609235096807777</v>
-      </c>
-      <c r="J16">
-        <v>0.1609235096807777</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>5.081043333333334</v>
-      </c>
-      <c r="N16">
-        <v>15.24313</v>
-      </c>
-      <c r="O16">
-        <v>0.1369722206926338</v>
-      </c>
-      <c r="P16">
-        <v>0.1369722206926338</v>
-      </c>
-      <c r="Q16">
-        <v>22.78732595316334</v>
-      </c>
-      <c r="R16">
-        <v>205.08593357847</v>
-      </c>
-      <c r="S16">
-        <v>0.02204205048262867</v>
-      </c>
-      <c r="T16">
-        <v>0.02204205048262867</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>4.484773000000001</v>
-      </c>
-      <c r="H17">
-        <v>13.454319</v>
-      </c>
-      <c r="I17">
-        <v>0.1609235096807777</v>
-      </c>
-      <c r="J17">
-        <v>0.1609235096807777</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.7979396666666666</v>
-      </c>
-      <c r="N17">
-        <v>2.393819</v>
-      </c>
-      <c r="O17">
-        <v>0.02151045778434087</v>
-      </c>
-      <c r="P17">
-        <v>0.02151045778434087</v>
-      </c>
-      <c r="Q17">
-        <v>3.578578272695667</v>
-      </c>
-      <c r="R17">
-        <v>32.207204454261</v>
-      </c>
-      <c r="S17">
-        <v>0.003461538361496337</v>
-      </c>
-      <c r="T17">
-        <v>0.003461538361496337</v>
+        <v>0.001488625628730981</v>
       </c>
     </row>
   </sheetData>
